--- a/analyses/T7-incubations/unipept/lca/NAAF/CV_phylum_naaf.xlsx
+++ b/analyses/T7-incubations/unipept/lca/NAAF/CV_phylum_naaf.xlsx
@@ -14,6 +14,7 @@
     <sheet name="306" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="406" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="for python" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="56">
   <si>
     <t xml:space="preserve">106_phylum</t>
   </si>
@@ -132,6 +133,9 @@
     <t xml:space="preserve">NAAF_num.</t>
   </si>
   <si>
+    <t xml:space="preserve">Phylum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time 0 small</t>
   </si>
   <si>
@@ -142,6 +146,54 @@
   </si>
   <si>
     <t xml:space="preserve">Time 24 large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidatus Micrarchaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidatus Aminicenantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidatus Saccharibacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balneolaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calditrichaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crenarchaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaumarchaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basidiomycota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oomycota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucoromycota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apicomplexa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubulinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haptista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uroviricota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negarnaviricota</t>
   </si>
 </sst>
 </file>
@@ -156,6 +208,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -244,40 +297,40 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -306,135 +359,135 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>331530807</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>41438127.6607143</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>210880300</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>26356528.5714286</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>295007600</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>36862136.3636364</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>136769140</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>17091685</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">B2/B$23*100</f>
         <v>17.4595105112462</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <f aca="false">C2/C$23*100</f>
         <v>17.4613014204417</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <f aca="false">D2/D$23*100</f>
         <v>25.4285975089705</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <f aca="false">E2/E$23*100</f>
         <v>25.42495723047</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <f aca="false">F2/F$23*100</f>
         <v>16.9524276212365</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <f aca="false">G2/G$23*100</f>
         <v>16.9476401678582</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <f aca="false">H2/H$23*100</f>
         <v>18.3419775324181</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <f aca="false">I2/I$23*100</f>
         <v>18.3399668418941</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>1561054800</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>195145642.857143</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>610619200</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>76333050</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>1444558400</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>180567600</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>607061650</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>75879406.25</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">B3/B$23*100</f>
         <v>82.210316850679</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <f aca="false">C3/C$23*100</f>
         <v>82.2309569272586</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <f aca="false">D3/D$23*100</f>
         <v>73.6303479654076</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <f aca="false">E3/E$23*100</f>
         <v>73.635058815188</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <f aca="false">F3/F$23*100</f>
         <v>83.010646914348</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <f aca="false">G3/G$23*100</f>
         <v>83.0172912547889</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
         <f aca="false">H3/H$23*100</f>
         <v>81.4124527294146</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="1" t="n">
         <f aca="false">I3/I$23*100</f>
         <v>81.4212170776384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>237600</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>26400</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -443,65 +496,65 @@
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>237600</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>26400</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>94400</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>10971.4285714286</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">B4/B$23*100</f>
         <v>0.0125128030634936</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <f aca="false">C4/C$23*100</f>
         <v>0.0111244977397156</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <f aca="false">D4/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <f aca="false">E4/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <f aca="false">F4/F$23*100</f>
         <v>0.0136535357150317</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <f aca="false">G4/G$23*100</f>
         <v>0.0121375954995604</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="1" t="n">
         <f aca="false">H4/H$23*100</f>
         <v>0.0126598930070064</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="1" t="n">
         <f aca="false">I4/I$23*100</f>
         <v>0.0117727208410529</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3636000</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>454500</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>3980000</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>497500</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -516,108 +569,108 @@
       <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">B5/B$23*100</f>
         <v>0.191483804456492</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">C5/C$23*100</f>
         <v>0.191518341768967</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <f aca="false">D5/D$23*100</f>
         <v>0.479920685268859</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <f aca="false">E5/E$23*100</f>
         <v>0.479915865546523</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <f aca="false">F5/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <f aca="false">G5/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="1" t="n">
         <f aca="false">H5/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <f aca="false">I5/I$23*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>1659200</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>166800</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>143010.1</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>20430.0142857143</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>96900</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>12112.5</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">B6/B$23*100</f>
         <v>0.0873789681942278</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">C6/C$23*100</f>
         <v>0.0702865993554756</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <f aca="false">D6/D$23*100</f>
         <v>0.00955018047067679</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <f aca="false">E6/E$23*100</f>
         <v>0.00848896405388825</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <f aca="false">F6/F$23*100</f>
         <v>0.00821798614461388</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <f aca="false">G6/G$23*100</f>
         <v>0.00939285035796368</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="1" t="n">
         <f aca="false">H6/H$23*100</f>
         <v>0.0129951655972343</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <f aca="false">I6/I$23*100</f>
         <v>0.0129971297957131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>169500</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>19185.7142857143</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -632,41 +685,41 @@
       <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>20400</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>2550</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">B7/B$23*100</f>
         <v>0.00892643147837609</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <f aca="false">C7/C$23*100</f>
         <v>0.00808452406084308</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <f aca="false">D7/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <f aca="false">E7/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <f aca="false">F7/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <f aca="false">G7/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="1" t="n">
         <f aca="false">H7/H$23*100</f>
         <v>0.00273582433625985</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <f aca="false">I7/I$23*100</f>
         <v>0.00273623785172908</v>
       </c>
@@ -675,71 +728,71 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>109000</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>13625</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>17400</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>2175</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>234000</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>29250</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">B8/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <f aca="false">C8/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <f aca="false">D8/D$23*100</f>
         <v>0.0131435564558557</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <f aca="false">E8/E$23*100</f>
         <v>0.0131434244584349</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <f aca="false">F8/F$23*100</f>
         <v>0.000999880140747273</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <f aca="false">G8/G$23*100</f>
         <v>0.000999972356497876</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
         <f aca="false">H8/H$23*100</f>
         <v>0.0313815144453335</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="1" t="n">
         <f aca="false">I8/I$23*100</f>
         <v>0.03138625771101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -754,53 +807,53 @@
       <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>5640</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>705</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">B9/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <f aca="false">C9/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <f aca="false">D9/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <f aca="false">E9/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <f aca="false">F9/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <f aca="false">G9/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="1" t="n">
         <f aca="false">H9/H$23*100</f>
         <v>0.000756374963554193</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <f aca="false">I9/I$23*100</f>
         <v>0.000756489288419215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -815,53 +868,53 @@
       <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>9380</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>1172.5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">B10/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <f aca="false">C10/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <f aca="false">D10/D$23*100</f>
         <v>0.438440103426525</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <f aca="false">E10/E$23*100</f>
         <v>0.438435700283205</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <f aca="false">F10/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <f aca="false">G10/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="1" t="n">
         <f aca="false">H10/H$23*100</f>
         <v>0.00125794275853517</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <f aca="false">I10/I$23*100</f>
         <v>0.00125813289456955</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>12800</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1828.57142857143</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -876,53 +929,53 @@
       <c r="G11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="H11" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <f aca="false">B11/B$23*100</f>
         <v>0.000674090400726926</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <f aca="false">C11/C$23*100</f>
         <v>0.000770527981971641</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <f aca="false">D11/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <f aca="false">E11/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <f aca="false">F11/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <f aca="false">G11/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="1" t="n">
         <f aca="false">H11/H$23*100</f>
         <v>0.0106214356584206</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <f aca="false">I11/I$23*100</f>
         <v>0.00944270317459446</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -931,10 +984,10 @@
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -943,47 +996,47 @@
       <c r="I12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">B12/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <f aca="false">C12/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <f aca="false">D12/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <f aca="false">E12/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <f aca="false">F12/F$23*100</f>
         <v>0.00455117857167724</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <f aca="false">G12/G$23*100</f>
         <v>0.00404586516652014</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="1" t="n">
         <f aca="false">H12/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <f aca="false">I12/I$23*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -998,41 +1051,41 @@
       <c r="G13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="H13" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <f aca="false">B13/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <f aca="false">C13/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <f aca="false">D13/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <f aca="false">E13/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="1" t="n">
         <f aca="false">F13/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <f aca="false">G13/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="1" t="n">
         <f aca="false">H13/H$23*100</f>
         <v>0.0106214356584206</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="1" t="n">
         <f aca="false">I13/I$23*100</f>
         <v>0.00944270317459446</v>
       </c>
@@ -1059,53 +1112,53 @@
       <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>158400</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>17600</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">B14/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="1" t="n">
         <f aca="false">C14/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <f aca="false">D14/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="1" t="n">
         <f aca="false">E14/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="1" t="n">
         <f aca="false">F14/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="1" t="n">
         <f aca="false">G14/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="1" t="n">
         <f aca="false">H14/H$23*100</f>
         <v>0.0212428713168412</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="1" t="n">
         <f aca="false">I14/I$23*100</f>
         <v>0.0188854063491889</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -1126,35 +1179,35 @@
       <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">B15/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <f aca="false">C15/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <f aca="false">D15/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="1" t="n">
         <f aca="false">E15/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="1" t="n">
         <f aca="false">F15/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <f aca="false">G15/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="1" t="n">
         <f aca="false">H15/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="1" t="n">
         <f aca="false">I15/I$23*100</f>
         <v>0</v>
       </c>
@@ -1175,10 +1228,10 @@
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -1187,35 +1240,35 @@
       <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false">B16/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="1" t="n">
         <f aca="false">C16/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="1" t="n">
         <f aca="false">D16/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <f aca="false">E16/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="1" t="n">
         <f aca="false">F16/F$23*100</f>
         <v>0.00455117857167724</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <f aca="false">G16/G$23*100</f>
         <v>0.00404586516652014</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="1" t="n">
         <f aca="false">H16/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="1" t="n">
         <f aca="false">I16/I$23*100</f>
         <v>0</v>
       </c>
@@ -1242,41 +1295,41 @@
       <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>967200</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>119800</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <f aca="false">B17/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <f aca="false">C17/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="1" t="n">
         <f aca="false">D17/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="1" t="n">
         <f aca="false">E17/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="1" t="n">
         <f aca="false">F17/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="1" t="n">
         <f aca="false">G17/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="1" t="n">
         <f aca="false">H17/H$23*100</f>
         <v>0.129710259707379</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="1" t="n">
         <f aca="false">I17/I$23*100</f>
         <v>0.128549527308684</v>
       </c>
@@ -1297,10 +1350,10 @@
       <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="H18" s="1" t="n">
@@ -1309,47 +1362,47 @@
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false">B18/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <f aca="false">C18/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="1" t="n">
         <f aca="false">D18/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <f aca="false">E18/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="1" t="n">
         <f aca="false">F18/F$23*100</f>
         <v>0.00455117857167724</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <f aca="false">G18/G$23*100</f>
         <v>0.00404586516652014</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="1" t="n">
         <f aca="false">H18/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="1" t="n">
         <f aca="false">I18/I$23*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D19" s="1" t="n">
@@ -1358,7 +1411,7 @@
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
@@ -1370,35 +1423,35 @@
       <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <f aca="false">B19/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="1" t="n">
         <f aca="false">C19/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <f aca="false">D19/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <f aca="false">E19/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="1" t="n">
         <f aca="false">F19/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <f aca="false">G19/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="1" t="n">
         <f aca="false">H19/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="1" t="n">
         <f aca="false">I19/I$23*100</f>
         <v>0</v>
       </c>
@@ -1419,47 +1472,47 @@
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>86400</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>10800</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false">B20/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <f aca="false">C20/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="1" t="n">
         <f aca="false">D20/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="1" t="n">
         <f aca="false">E20/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="1" t="n">
         <f aca="false">F20/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="1" t="n">
         <f aca="false">G20/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="1" t="n">
         <f aca="false">H20/H$23*100</f>
         <v>0.011587020718277</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="1" t="n">
         <f aca="false">I20/I$23*100</f>
         <v>0.0115887720779114</v>
       </c>
@@ -1480,10 +1533,10 @@
       <c r="E21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>6970</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>871.25</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -1492,47 +1545,47 @@
       <c r="I21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <f aca="false">B21/B$23*100</f>
         <v>0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="1" t="n">
         <f aca="false">C21/C$23*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="1" t="n">
         <f aca="false">D21/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <f aca="false">E21/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="1" t="n">
         <f aca="false">F21/F$23*100</f>
         <v>0.000400526700057959</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <f aca="false">G21/G$23*100</f>
         <v>0.000400563639355758</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="1" t="n">
         <f aca="false">H21/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="1" t="n">
         <f aca="false">I21/I$23*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>8800</v>
       </c>
       <c r="D22" s="1" t="n">
@@ -1553,104 +1606,104 @@
       <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <f aca="false">B22/B$23*100</f>
         <v>0.00417093435449786</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="1" t="n">
         <f aca="false">C22/C$23*100</f>
         <v>0.00370816591323852</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="1" t="n">
         <f aca="false">D22/D$23*100</f>
         <v>0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="1" t="n">
         <f aca="false">E22/E$23*100</f>
         <v>0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="1" t="n">
         <f aca="false">F22/F$23*100</f>
         <v>0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="1" t="n">
         <f aca="false">G22/G$23*100</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="1" t="n">
         <f aca="false">H22/H$23*100</f>
         <v>0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="1" t="n">
         <f aca="false">I22/I$23*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <f aca="false">SUM(B2:B22)</f>
         <v>1898855107</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">SUM(C2:C22)</f>
         <v>237314084.803572</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">SUM(D2:D22)</f>
         <v>829303700</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false">SUM(E2:E22)</f>
         <v>103664003.571429</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">SUM(F2:F22)</f>
         <v>1740208580.1</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <f aca="false">SUM(G2:G22)</f>
         <v>217506012.627922</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false">SUM(H2:H22)</f>
         <v>745661910</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false">SUM(I2:I22)</f>
         <v>93193652.6785714</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <f aca="false">B23/B$23*100</f>
         <v>100</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="1" t="n">
         <f aca="false">C23/C$23*100</f>
         <v>100</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="1" t="n">
         <f aca="false">D23/D$23*100</f>
         <v>100</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <f aca="false">E23/E$23*100</f>
         <v>100</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="1" t="n">
         <f aca="false">F23/F$23*100</f>
         <v>100</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="1" t="n">
         <f aca="false">G23/G$23*100</f>
         <v>100</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="1" t="n">
         <f aca="false">H23/H$23*100</f>
         <v>100</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="1" t="n">
         <f aca="false">I23/I$23*100</f>
         <v>100</v>
       </c>
@@ -1674,854 +1727,854 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>11100</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1585.71428571429</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">SUM(B2:B4)</f>
         <v>169500</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>19185.7142857143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <f aca="false">SUM(B5:B23)</f>
         <v>331530807</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">SUM(C5:C23)</f>
         <v>41438127.6607143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">SUM(B24:B27)</f>
         <v>3636000</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">SUM(C24:C27)</f>
         <v>454500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>38200</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>5457.14285714286</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">B28</f>
         <v>79200</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">C28</f>
         <v>8800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>188000</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>23500</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">SUM(B29:B31)</f>
         <v>237600</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">SUM(C29:C31)</f>
         <v>26400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>907</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>113.375</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">B32</f>
         <v>79200</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">C32</f>
         <v>8800</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>40100000</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>5012500</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">B33</f>
         <v>79200</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">C33</f>
         <v>8800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>40100000</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>5012500</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">B34</f>
         <v>79200</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">C34</f>
         <v>8800</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>40100000</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>5012500</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">B35</f>
         <v>79200</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">C35</f>
         <v>8800</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">B36</f>
         <v>79200</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">C36</f>
         <v>8800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>52300000</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>6537500</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">SUM(B37:B38)</f>
         <v>1659200</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">SUM(C37:C38)</f>
         <v>166800</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>52300000</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>6537500</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">B39</f>
         <v>79200</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">C39</f>
         <v>8800</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>52300000</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>6537500</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">B40</f>
         <v>12800</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">C40</f>
         <v>1828.57142857143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>52300000</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>6537500</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <f aca="false">SUM(B41:B61)</f>
         <v>1561054800</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">SUM(C41:C61)</f>
         <v>195145642.857143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>52400</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>6550</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>310000</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>38750</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>89300</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>12757.1428571429</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>956000</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>119500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>862000</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>107750</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>862000</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>107750</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>956000</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>119500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>956000</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>119500</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>1580000</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>158000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>12800</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>1828.57142857143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="0" t="n">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>4180000</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>522500</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="0" t="n">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>137000000</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>17125000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="0" t="n">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="n">
         <v>137000000</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>17125000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="0" t="n">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>137000000</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>17125000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C47" s="0" t="n">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C47" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="0" t="n">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="n">
         <v>137000000</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>17125000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="0" t="n">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="n">
         <v>137000000</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>17125000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C51" s="0" t="n">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="0" t="n">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="n">
         <v>174000000</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>21750000</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="0" t="n">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="n">
         <v>174000000</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>21750000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="0" t="n">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="n">
         <v>174000000</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>21750000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="0" t="n">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="n">
         <v>174000000</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>21750000</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="0" t="n">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="n">
         <v>174000000</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>21750000</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="0" t="n">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="n">
         <v>242000</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>30250</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="0" t="n">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="n">
         <v>571000</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>81571.4285714286</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="0" t="n">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="n">
         <v>571000</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>81571.4285714286</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="0" t="n">
+      <c r="A60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1" t="n">
         <v>15600</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>1950</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C61" s="0" t="n">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C61" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2540,340 +2593,340 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>49900</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>7128.57142857143</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <f aca="false">SUM(B2:B12)</f>
         <v>210880300</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">SUM(C2:C12)</f>
         <v>26356528.5714286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>13600</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">SUM(B13:B14)</f>
         <v>3980000</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">SUM(C13:C14)</f>
         <v>497500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">B15</f>
         <v>79200</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">C15</f>
         <v>8800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>42100000</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>5262500</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">B16</f>
         <v>109000</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">C16</f>
         <v>13625</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>42100000</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>5262500</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <f aca="false">SUM(B17:B24)</f>
         <v>610619200</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">SUM(C17:C24)</f>
         <v>76333050</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>42100000</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>5262500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>42100000</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>5262500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>42100000</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>5262500</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1990000</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>248750</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1990000</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>248750</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>109000</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>13625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>122000000</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>15250000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>122000000</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>15250000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>122000000</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>15250000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>122000000</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>15250000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>122000000</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>15250000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>378000</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>54000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>162000</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>20250</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2892,670 +2945,670 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>118000</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>14750</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <f aca="false">SUM(B2:B24)</f>
         <v>295007600</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">SUM(C2:C24)</f>
         <v>36862136.3636364</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>618000</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>77250</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">SUM(B25:B27)</f>
         <v>237600</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">SUM(C25:C27)</f>
         <v>26400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">B28</f>
         <v>79200</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">C28</f>
         <v>8800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>31800000</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>3975000</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">B29</f>
         <v>79200</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">C29</f>
         <v>8800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>31800000</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>3975000</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">B30</f>
         <v>79200</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">C30</f>
         <v>8800</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>31800000</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>3975000</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">B31</f>
         <v>6970</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">C31</f>
         <v>871.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>31800000</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>3975000</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">SUM(B32:B33)</f>
         <v>143010.1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">SUM(C32:C33)</f>
         <v>20430.0142857143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">B34</f>
         <v>17400</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">C34</f>
         <v>2175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>7820000</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>977500</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false">SUM(B35:B50)</f>
         <v>1444558400</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">SUM(C35:C50)</f>
         <v>180567600</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>7820000</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>977500</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>7820000</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>977500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>7820000</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>977500</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>33600000</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>4200000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>33600000</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>4200000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>33600000</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>4200000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>33600000</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>4200000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>26800</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>2436.36363636364</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>218000</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>27250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>218000</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>27250</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>306000</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>306000</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>6970</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>871.25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>143000</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>20428.5714285714</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>10.1</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>1.44285714285714</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>17400</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>2175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="0" t="n">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>145000000</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>18125000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="0" t="n">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <v>145000000</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>18125000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="0" t="n">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>145000000</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>18125000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="0" t="n">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <v>145000000</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>18125000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="0" t="n">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="n">
         <v>145000000</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>18125000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="0" t="n">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="n">
         <v>145000000</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>18125000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="0" t="n">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>41600000</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>5200000</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="0" t="n">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>41600000</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>5200000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="0" t="n">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="n">
         <v>41600000</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>5200000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="0" t="n">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>41600000</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>5200000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="0" t="n">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="n">
         <v>102000000</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>12750000</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="0" t="n">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="n">
         <v>102000000</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>12750000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="0" t="n">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="n">
         <v>102000000</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>12750000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="0" t="n">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="n">
         <v>102000000</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>12750000</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3574,659 +3627,659 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">SUM(B2:B3)</f>
         <v>158400</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">SUM(C2:C3)</f>
         <v>17600</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">B4</f>
         <v>20400</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">C4</f>
         <v>2550</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>20400</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2550</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <f aca="false">SUM(B5:B18)</f>
         <v>136769140</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">SUM(C5:C18)</f>
         <v>17091685</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>48200</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>6025</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">SUM(B19:B21)</f>
         <v>967200</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">SUM(C19:C21)</f>
         <v>119800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">SUM(B22:B23)</f>
         <v>94400</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">SUM(C22:C23)</f>
         <v>10971.4285714286</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>8800</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">B24</f>
         <v>5640</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">C24</f>
         <v>705</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>13400000</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>1675000</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">B25</f>
         <v>79200</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">C25</f>
         <v>8800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>13400000</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>1675000</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">SUM(B26:B27)</f>
         <v>86400</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">SUM(C26:C27)</f>
         <v>10800</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>13400000</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>1675000</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">B28</f>
         <v>96900</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">C28</f>
         <v>12112.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>13400000</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1675000</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">B29</f>
         <v>9380</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">C29</f>
         <v>1172.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>20700000</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>2587500</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">B30</f>
         <v>79200</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">C30</f>
         <v>8800</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>20700000</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>2587500</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">SUM(B31:B32)</f>
         <v>234000</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">SUM(C31:C32)</f>
         <v>29250</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>20700000</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>2587500</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <f aca="false">SUM(B33:B45)</f>
         <v>607061650</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">SUM(C33:C45)</f>
         <v>75879406.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>20700000</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>2587500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>4140</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>460</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>444000</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>55500</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>444000</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>55500</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>15200</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>2171.42857142857</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>5640</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>705</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>43200</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>43200</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>5400</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>96900</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>12112.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>9380</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>1172.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>98000</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>12250</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>136000</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>17000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="0" t="n">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>5550</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>693.75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="0" t="n">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="n">
         <v>18500</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>2312.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="0" t="n">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>64000000</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>8000000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="0" t="n">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>64000000</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>8000000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="0" t="n">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <v>64000000</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>8000000</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="0" t="n">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <v>64000000</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>8000000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="0" t="n">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="n">
         <v>87700000</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>10962500</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="0" t="n">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="n">
         <v>87700000</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>10962500</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="0" t="n">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="n">
         <v>87700000</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>10962500</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="0" t="n">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>87700000</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>10962500</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>79200</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>8800</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4239,45 +4292,716 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>17.4595105112462</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>25.4285975089705</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>16.9524276212365</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>18.3419775324181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>82.210316850679</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>73.6303479654076</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>83.010646914348</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>81.4124527294146</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.191483804456492</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.479920685268859</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.012512803063494</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.013653535715032</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.012659893007006</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.021242871316841</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.013143556455856</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.000999880140747</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.031381514445334</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.087378968194228</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.009550180470677</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.008217986144614</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.012995165597234</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.004551178571677</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.004551178571677</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.000400526700058</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.004551178571677</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0.008926431478376</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.00273582433626</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.010621435658421</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0.438440103426525</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.001257942758535</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.011587020718277</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.000756374963554</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0.000674090400727</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.010621435658421</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.129710259707379</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>17.4595105112462</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>25.4285975089705</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>16.9524276212365</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>18.3419775324181</v>
       </c>
     </row>
@@ -4285,76 +5009,76 @@
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>82.210316850679</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>73.6303479654076</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>83.010646914348</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>81.4124527294146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.012512803063494</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.013653535715032</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.012659893007006</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.191483804456492</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.479920685268859</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.191483804456492</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.479920685268859</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.012512803063494</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.013653535715032</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.012659893007006</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.087378968194228</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.009550180470677</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.008217986144614</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.012995165597234</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.021242871316841</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.008926431478376</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -4363,114 +5087,114 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.00273582433626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>0.013143556455856</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.000999880140747</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.031381514445334</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.087378968194228</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.009550180470677</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.008217986144614</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.012995165597234</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>0.004170934354498</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.000756374963554</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.438440103426525</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.001257942758535</v>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.000674090400727</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.010621435658421</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>0.004551178571677</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.010621435658421</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.004551178571677</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -4482,29 +5206,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.021242871316841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.000400526700058</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -4513,15 +5237,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.004551178571677</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+      <c r="A17" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -4533,12 +5257,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.129710259707379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
+      <c r="A18" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -4547,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.004551178571677</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
@@ -4555,10 +5279,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.004170934354498</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -4571,8 +5295,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
+      <c r="A20" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -4584,12 +5308,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.011587020718277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
+      <c r="A21" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -4598,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.000400526700058</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -4606,25 +5330,297 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>0.004170934354498</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.004551178571677</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0.008926431478376</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.00273582433626</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.010621435658421</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0.438440103426525</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.001257942758535</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.011587020718277</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.000756374963554</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0.000674090400727</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.010621435658421</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.129710259707379</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0.004170934354498</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/analyses/T7-incubations/unipept/lca/NAAF/CV_phylum_naaf.xlsx
+++ b/analyses/T7-incubations/unipept/lca/NAAF/CV_phylum_naaf.xlsx
@@ -5,16 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="phylum-sorting" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="106" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="206" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="306" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="406" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="for python" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="class-sorting" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="106 class" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="206 class" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="306 class" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="406 class" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="class python" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="112">
   <si>
     <t xml:space="preserve">106_phylum</t>
   </si>
@@ -194,6 +199,174 @@
   </si>
   <si>
     <t xml:space="preserve">Negarnaviricota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verrucomicrobiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermoprotei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermoleophilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphingobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sordariomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planctomycetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pezizomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opitutae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligoflexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrospira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephroselmidophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negativicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanohaloarchaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucoromycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monjiviricetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methanomicrobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnoliopsida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leotiomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignavibacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haptophyta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurotiomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epsilonproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dothideomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deltaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferribacteres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coscinodiscophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexivisphaeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clostridia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorodendrophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitinophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caudoviricetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryopsida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balneolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillariophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agaricomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aconoidasida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
   </si>
 </sst>
 </file>
@@ -203,7 +376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -224,6 +397,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,12 +446,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,7 +482,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1712,6 +1894,1880 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SUM(B2:B15)</f>
+        <v>1444400000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">B16</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">B17</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">SUM(B18:B35)</f>
+        <v>294158000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">SUM(B36:B37)</f>
+        <v>143010.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>145000000</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">B38</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>41600000</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">B39</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>41600000</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">SUM(B40:B41)</f>
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>41600000</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">B42</f>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>41600000</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUM(B43:B44)</f>
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>618000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>31800000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>31800000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>31800000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>31800000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>7820000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7820000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>7820000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>7820000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.35"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">B2</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>64000000</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(B3:B12)</f>
+        <v>606958400</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>64000000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>64000000</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">B15</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>64000000</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">B16</f>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>87700000</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUM(B17:B27)</f>
+        <v>136606600</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>87700000</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">B28</f>
+        <v>96900</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>87700000</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">SUM(B29:B30)</f>
+        <v>83340</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>87700000</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">B31</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">B32</f>
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">B34</f>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">B35</f>
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">SUM(B36:B37)</f>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">SUM(B38:B40)</f>
+        <v>103250</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>13400000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>13400000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>13400000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>13400000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20700000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20700000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>20700000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>20700000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>96900</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>18500</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.010637059539611</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.004171571451934</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>81.9292208765954</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>73.8962812587627</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>83.0424199134342</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>81.5183413998373</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.000674193365969</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.010637059539611</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.191513053020625</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.482080358435225</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.010637059539611</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.010637059539611</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.004553419867865</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.004171571451934</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.004553419867865</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.00892779496342</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.002739848669294</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>17.3776767403742</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>25.5273904614708</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>16.911930321861</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>18.3471280013112</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.004171571451934</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.004171571451934</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.009593156881425</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.008222033215219</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.013014281179146</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.004553419867865</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.004553419867865</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.011193087651909</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.083220743611823</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.004171571451934</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.012514714355803</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.00910683973573</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.010637059539611</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.004171571451934</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.005802032476152</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.02520324418877</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.002041455871239</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.001259793162646</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.013202703283779</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.001000372546728</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.031427675912488</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.052365862847389</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.00604417333817</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.293653347964959</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.065407887827895</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.00910683973573</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.013867126230617</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1730,7 +3786,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.32"/>
@@ -2593,7 +4649,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2945,7 +5001,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3627,7 +5683,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4294,11 +6350,11 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4318,7 +6374,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -4335,7 +6391,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -4352,7 +6408,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -4369,7 +6425,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -4386,7 +6442,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -4403,24 +6459,24 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -4437,7 +6493,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -4471,7 +6527,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -4488,7 +6544,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -4505,7 +6561,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -4522,24 +6578,24 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -4556,109 +6612,109 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -4675,7 +6731,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -4692,7 +6748,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -4709,7 +6765,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -4726,7 +6782,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -4743,7 +6799,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -4760,24 +6816,24 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="1" t="n">
@@ -4794,36 +6850,36 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,38 +6887,38 @@
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="B33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -4879,7 +6935,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="1" t="n">
@@ -4896,53 +6952,53 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="B37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4962,123 +7018,235 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>17.4595105112462</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>25.4285975089705</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>16.9524276212365</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>18.3419775324181</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">B2/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">C2/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">D2/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">E2/E$56*100</f>
+        <v>0.0106370595396111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>82.210316850679</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>73.6303479654076</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>83.010646914348</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>81.4124527294146</v>
+        <v>58</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">B3/B$56*100</f>
+        <v>0.00417157145193441</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">C3/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">D3/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">E3/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0.191483804456492</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.479920685268859</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">B4/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">C4/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">D4/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">E4/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0.012512803063494</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.013653535715032</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.012659893007006</v>
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1555479600</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>610079200</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1444400000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>606958400</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">B5/B$56*100</f>
+        <v>81.9292208765954</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">C5/C$56*100</f>
+        <v>73.8962812587627</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">D5/D$56*100</f>
+        <v>83.0424199134342</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">E5/E$56*100</f>
+        <v>81.5183413998373</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.021242871316841</v>
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">B6/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">C6/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">D6/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">E6/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -5087,114 +7255,247 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">B7/B$56*100</f>
+        <v>0.000674193365969198</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">C7/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">D7/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">E7/E$56*100</f>
+        <v>0.0106370595396111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0.013143556455856</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.000999880140747</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.031381514445334</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">B8/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">C8/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">D8/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">E8/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>0.087378968194228</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0.009550180470677</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0.008217986144614</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.012995165597234</v>
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3636000</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3980000</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">B9/B$56*100</f>
+        <v>0.191513053020625</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">C9/C$56*100</f>
+        <v>0.482080358435225</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">D9/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">E9/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="A10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">B10/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">C10/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">D10/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">E10/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">B11/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">C11/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">D11/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">E11/E$56*100</f>
+        <v>0.0106370595396111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0.004551178571677</v>
-      </c>
-      <c r="E12" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">B12/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">C12/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">D12/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">E12/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0.004551178571677</v>
-      </c>
-      <c r="E13" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">B13/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">C13/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">D13/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">E13/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5206,32 +7507,70 @@
         <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">B14/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">C14/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">D14/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">E14/E$56*100</f>
+        <v>0.0106370595396111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>0.000400526700058</v>
-      </c>
-      <c r="E15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">B15/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">C15/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">D15/D$56*100</f>
+        <v>0.00455341986786485</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">E15/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -5240,12 +7579,31 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">B16/B$56*100</f>
+        <v>0.00417157145193441</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">C16/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">D16/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">E16/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5257,12 +7615,31 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">B17/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">C17/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">D17/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">E17/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5274,12 +7651,31 @@
         <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">B18/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">C18/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">D18/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">E18/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -5288,15 +7684,34 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">B19/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">C19/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">D19/D$56*100</f>
+        <v>0.00455341986786485</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">E19/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -5308,15 +7723,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">B20/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">C20/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">D20/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">E20/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>169500</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -5325,148 +7759,316 @@
         <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0</v>
+        <v>20400</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">B21/B$56*100</f>
+        <v>0.00892779496342024</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">C21/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">D21/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">E21/E$56*100</f>
+        <v>0.00273984866929378</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>0.004551178571677</v>
-      </c>
-      <c r="E22" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">B22/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">C22/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">D22/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">E22/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>0.008926431478376</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0.00273582433626</v>
+        <v>78</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">B23/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">C23/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">D23/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">E23/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>0.010621435658421</v>
+        <v>79</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">B24/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">C24/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">D24/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">E24/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0.438440103426525</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0.001257942758535</v>
+        <v>80</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">B25/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">C25/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">D25/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">E25/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>0.011587020718277</v>
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>329926507</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>210751200</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>294158000</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>136606600</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">B26/B$56*100</f>
+        <v>17.3776767403742</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">C26/C$56*100</f>
+        <v>25.5273904614708</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">D26/D$56*100</f>
+        <v>16.911930321861</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">E26/E$56*100</f>
+        <v>18.3471280013112</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>0.000756374963554</v>
+        <v>82</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">B27/B$56*100</f>
+        <v>0.00417157145193441</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">C27/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">D27/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">E27/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>143010.1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0</v>
+        <v>96900</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">B28/B$56*100</f>
+        <v>0.00417157145193441</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">C28/C$56*100</f>
+        <v>0.00959315688142458</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">D28/D$56*100</f>
+        <v>0.00822203321521893</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">E28/E$56*100</f>
+        <v>0.0130142811791454</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>0.000674090400727</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>0.010621435658421</v>
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">B29/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">C29/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">D29/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">E29/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -5475,15 +8077,34 @@
         <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">B30/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">C30/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">D30/D$56*100</f>
+        <v>0.00455341986786485</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">E30/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -5491,16 +8112,32 @@
       <c r="C31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">B31/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">C31/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">D31/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">E31/E$56*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
+      <c r="A32" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -5508,16 +8145,32 @@
       <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">B32/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">C32/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">D32/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">E32/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -5526,66 +8179,133 @@
         <v>0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>83340</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">B33/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">C33/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">D33/D$56*100</f>
+        <v>0.00455341986786485</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">E33/E$56*100</f>
+        <v>0.011193087651909</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0.129710259707379</v>
+        <v>89</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">B34/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">C34/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">D34/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">E34/E$56*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>0.004170934354498</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">B35/B$56*100</f>
+        <v>0.0832207436118229</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">C35/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">D35/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">E35/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">B36/B$56*100</f>
+        <v>0.00417157145193441</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">C36/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">D36/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">E36/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -5593,28 +8313,1578 @@
       <c r="C37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">B37/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">C37/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">D37/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">E37/E$56*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>237600</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>158400</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0</v>
+        <v>79200</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">B38/B$56*100</f>
+        <v>0.0125147143558032</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">C38/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">D38/D$56*100</f>
+        <v>0.0091068397357297</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">E38/E$56*100</f>
+        <v>0.0106370595396111</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">B39/B$56*100</f>
+        <v>0.00417157145193441</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">C39/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">D39/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">E39/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">B40/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">C40/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">D40/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">E40/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>43200</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">B41/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">C41/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">D41/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">E41/E$56*100</f>
+        <v>0.00580203247615153</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">B42/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">C42/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">D42/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">E42/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">B43/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">C43/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">D43/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">E43/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">B44/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">C44/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">D44/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">E44/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>478500</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">B45/B$56*100</f>
+        <v>0.0252032441887704</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">C45/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">D45/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">E45/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">B46/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">C46/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">D46/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">E46/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">B47/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">C47/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">D47/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">E47/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">B48/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">C48/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">D48/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">E48/E$56*100</f>
+        <v>0.0020414558712385</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9380</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">B49/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">C49/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">D49/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">E49/E$56*100</f>
+        <v>0.00125979316264586</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>109000</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>234000</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">B50/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">C50/C$56*100</f>
+        <v>0.0132027032837788</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">D50/D$56*100</f>
+        <v>0.00100037254672788</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">E50/E$56*100</f>
+        <v>0.0314276759124875</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>994200</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>49900</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">B51/B$56*100</f>
+        <v>0.0523658628473888</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">C51/C$56*100</f>
+        <v>0.00604417333817029</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">D51/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">E51/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">B52/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">C52/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">D52/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">E52/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>5575200</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>540000</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>158400</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>103250</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">B53/B$56*100</f>
+        <v>0.293653347964959</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <f aca="false">C53/C$56*100</f>
+        <v>0.0654078878278949</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">D53/D$56*100</f>
+        <v>0.0091068397357297</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">E53/E$56*100</f>
+        <v>0.0138671262306168</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">B54/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">C54/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">D54/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">E54/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">B55/B$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">C55/C$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">D55/D$56*100</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">E55/E$56*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <f aca="false">SUM(B2:B55)</f>
+        <v>1898565107</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">SUM(C2:C55)</f>
+        <v>825588500</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">SUM(D2:D55)</f>
+        <v>1739352010.1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">SUM(E2:E55)</f>
+        <v>744566670</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">B56/B$56*100</f>
+        <v>100</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">C56/C$56*100</f>
+        <v>100</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">D56/D$56*100</f>
+        <v>100</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">E56/E$56*100</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">B2</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>137000000</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(B3:B16)</f>
+        <v>1555479600</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>137000000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">B17</f>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>137000000</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">SUM(B18:B21)</f>
+        <v>3636000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">B22</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>137000000</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">SUM(B23:B25)</f>
+        <v>169500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>137000000</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUM(B26:B37)</f>
+        <v>329926507</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">B38</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">B39</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>174000000</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">B40</f>
+        <v>1580000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>174000000</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">B41</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>174000000</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">SUM(B42:B44)</f>
+        <v>237600</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>174000000</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">B45</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>174000000</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">SUM(B46:B48)</f>
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>242000</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">SUM(B49:B50)</f>
+        <v>994200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>12800</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">SUM(B51:B57)</f>
+        <v>5575200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>862000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>862000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>956000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>956000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>40100000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>40100000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>40100000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>52300000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1580000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>89300</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>38200</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>956000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>4180000</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>571000</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>571000</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>122000000</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SUM(B2:B7)</f>
+        <v>610079200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>122000000</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SUM(B8:B9)</f>
+        <v>3980000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>122000000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SUM(B10:B18)</f>
+        <v>210751200</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>122000000</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">B19</f>
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>122000000</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">B20</f>
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">B21</f>
+        <v>49900</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUM(B22:B23)</f>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1990000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>42100000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>42100000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>42100000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>42100000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>42100000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>49900</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>162000</v>
       </c>
     </row>
   </sheetData>
